--- a/biology/Médecine/Sushruta_Samhita/Sushruta_Samhita.xlsx
+++ b/biology/Médecine/Sushruta_Samhita/Sushruta_Samhita.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Sushruta Samhita (en sanskrit सुश्रुतसंहिता (Suśrutasaṃhitā), littéralement « livres de Sushruta ») est un traité de médecine et de chirurgie qui constitue l'un des deux textes fondateurs de l'Ayurveda. Il est contemporain de la Charaka Samhita, et aurait été rédigé par 	
 Sushruta au Ier ou IIe siècle apr. J.-C.
